--- a/biology/Médecine/Ibn_Jazla/Ibn_Jazla.xlsx
+++ b/biology/Médecine/Ibn_Jazla/Ibn_Jazla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abu ali Yahya ibn Isa Ibn Jazla Al Baghdadi (arabe : أبو علي يحيى بن عيسى بن جزلة البغدادي), latinisé Buhahylyha Bingezla, était un médecin du XIe siècle de Bagdad. Ibn Jazla est né comme un chrétien nestorien. Il s'est converti à l'islam en 1074 et est mort en 1100[1].
-Il étudie la médecine auprès de Saïd Hibat Allah (ar)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abu ali Yahya ibn Isa Ibn Jazla Al Baghdadi (arabe : أبو علي يحيى بن عيسى بن جزلة البغدادي), latinisé Buhahylyha Bingezla, était un médecin du XIe siècle de Bagdad. Ibn Jazla est né comme un chrétien nestorien. Il s'est converti à l'islam en 1074 et est mort en 1100.
+Il étudie la médecine auprès de Saïd Hibat Allah (ar).
 Il est l'auteur d'une encyclopédie de pathologie intitulée Kitab Taqwim Al-Abdan, dans laquelle toutes les maladies connues, y compris le cancer, se trouvent décrites cliniquement. Dans un second ouvrage consacré à la pharmacopée, Kitab Minhaj Al-Bayan, le même spécialiste a recensé toutes les plantes médicinales et leurs effets curatifs.
 </t>
         </is>
